--- a/LedAddress.xlsx
+++ b/LedAddress.xlsx
@@ -5,15 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuhiro/Documents/source/openframeworks/of_v0.9.0_osx_release/apps/myApps/AutoMagic_DMXLight/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuhiro/Documents/source/openframeworks/of_v0.9.0_osx_release/apps/myApps/N_AutoMagic_DMXLight/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1980" windowWidth="31660" windowHeight="19520"/>
+    <workbookView xWindow="2480" yWindow="1140" windowWidth="34240" windowHeight="21660"/>
   </bookViews>
   <sheets>
     <sheet name="Fill_class" sheetId="7" r:id="rId1"/>
-    <sheet name="mini" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="32">
   <si>
     <t>/*</t>
     <phoneticPr fontId="1"/>
@@ -54,23 +53,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LED_DEVICE_TYPE_MOVING</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED_DEVICE_TYPE_FIXED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Hardware(Start Address) setting </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED_DEVICE_TYPE_MOVING</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -96,6 +83,88 @@
   <si>
     <t>//</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Broadway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TWC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町田歯科</t>
+    <rPh sb="0" eb="2">
+      <t>マチダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くつ：DAIWA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とんこつラーメン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STOCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームメイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>niraku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIGER plaza - ピカデリーサーカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyber slot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレーパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マツキヨ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀だこ</t>
+    <rPh sb="0" eb="1">
+      <t>ギンダコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_DEVICE_TYPE_N_WALLWASHER</t>
+  </si>
+  <si>
+    <t>LED_DEVICE_TYPE_N_BALL</t>
   </si>
 </sst>
 </file>
@@ -141,9 +210,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,17 +519,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L35"/>
+  <dimension ref="A2:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="82" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72:M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
@@ -464,7 +537,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -473,42 +546,42 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
       <c r="L3">
         <f>G3+1</f>
@@ -517,700 +590,700 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L35" si="0">G4+1</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
         <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
         <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
         <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
         <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
         <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
         <v>12</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
         <v>12</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
         <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>15</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
         <v>12</v>
-      </c>
-      <c r="K18" t="s">
-        <v>15</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
         <v>12</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
         <v>12</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
         <v>12</v>
-      </c>
-      <c r="K21" t="s">
-        <v>15</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -1219,793 +1292,3376 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
         <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
         <v>12</v>
-      </c>
-      <c r="K23" t="s">
-        <v>15</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
         <v>12</v>
-      </c>
-      <c r="K24" t="s">
-        <v>15</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
         <v>12</v>
-      </c>
-      <c r="K25" t="s">
-        <v>15</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
         <v>12</v>
-      </c>
-      <c r="K26" t="s">
-        <v>15</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
         <v>12</v>
-      </c>
-      <c r="K27" t="s">
-        <v>15</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G28">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
         <v>12</v>
-      </c>
-      <c r="K28" t="s">
-        <v>15</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
         <v>12</v>
-      </c>
-      <c r="K29" t="s">
-        <v>15</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
         <v>12</v>
-      </c>
-      <c r="K30" t="s">
-        <v>15</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
         <v>12</v>
-      </c>
-      <c r="K31" t="s">
-        <v>15</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G32">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
         <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" t="s">
-        <v>15</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
         <v>12</v>
-      </c>
-      <c r="K33" t="s">
-        <v>15</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
         <v>12</v>
-      </c>
-      <c r="K34" t="s">
-        <v>15</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
         <v>12</v>
-      </c>
-      <c r="K35" t="s">
-        <v>15</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36:L49" si="1">G36+1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>105</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>111</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>117</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>120</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>126</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>129</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:L101" si="2">G50+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
         <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>51</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>57</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>60</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>66</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>90</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>93</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>96</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>99</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>105</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>108</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>111</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>114</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>117</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>120</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>123</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>126</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>129</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="2">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="2">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="2">
+        <v>60</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="2">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="2">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="2">
+        <v>96</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2">
+        <v>108</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2">
+        <v>120</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="2">
+        <v>132</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" t="s">
+        <v>31</v>
+      </c>
+      <c r="J102" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" t="s">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ref="L102:L106" si="3">G102+1</f>
+        <v>133</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="2">
+        <v>144</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4</v>
+      </c>
+      <c r="I103" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" t="s">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2">
+        <v>156</v>
+      </c>
+      <c r="H104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" t="s">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2">
+        <v>168</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" t="s">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2">
+        <v>180</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:L7"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <f>G3+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L7" si="0">G4+1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>